--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createImagePackage.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createImagePackage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,9 +114,6 @@
     <t>release_with_vm</t>
   </si>
   <si>
-    <t>Release on VM termination</t>
-  </si>
-  <si>
     <t>data_disk</t>
   </si>
   <si>
@@ -678,6 +675,10 @@
       </rPr>
       <t>'</t>
     </r>
+  </si>
+  <si>
+    <t>Release with VM termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1076,15 +1077,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="222.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1115,7 +1115,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1137,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1148,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1181,7 +1181,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1192,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1203,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1214,7 +1214,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1225,7 +1225,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1236,7 +1236,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1247,7 +1247,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1258,116 +1258,116 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C25 A1:A25" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C15 A1:A25 C17:C25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>